--- a/data/trans_orig/P1002-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>103355</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86302</v>
+        <v>83698</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124400</v>
+        <v>122228</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1001774843065523</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.083648870379762</v>
+        <v>0.08112416136020195</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1205748494314021</v>
+        <v>0.118469583783779</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>163</v>
@@ -765,19 +765,19 @@
         <v>169055</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>147124</v>
+        <v>145843</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>195086</v>
+        <v>195523</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1285480413555089</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1118716516898455</v>
+        <v>0.110897621311912</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1483419611254846</v>
+        <v>0.1486737259193987</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>266</v>
@@ -786,19 +786,19 @@
         <v>272410</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>240841</v>
+        <v>243580</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>302439</v>
+        <v>303628</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1160756920837334</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1026238959804115</v>
+        <v>0.103790903640447</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1288710322825548</v>
+        <v>0.1293774928518171</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>928368</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>907323</v>
+        <v>909495</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>945421</v>
+        <v>948025</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8998225156934477</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8794251505685979</v>
+        <v>0.8815304162162215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9163511296202381</v>
+        <v>0.918875838639798</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1128</v>
@@ -836,19 +836,19 @@
         <v>1146058</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1120027</v>
+        <v>1119590</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1167989</v>
+        <v>1169270</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8714519586444911</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8516580388745147</v>
+        <v>0.8513262740806014</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8881283483101541</v>
+        <v>0.8891023786880881</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2063</v>
@@ -857,19 +857,19 @@
         <v>2074425</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2044396</v>
+        <v>2043207</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2105994</v>
+        <v>2103255</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8839243079162666</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8711289677174452</v>
+        <v>0.8706225071481828</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8973761040195883</v>
+        <v>0.896209096359553</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>47064</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34525</v>
+        <v>34870</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63041</v>
+        <v>62478</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02779242340425098</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02038759067081591</v>
+        <v>0.02059175625108559</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03722726724848284</v>
+        <v>0.03689444678300452</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -982,19 +982,19 @@
         <v>95327</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77576</v>
+        <v>77519</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115077</v>
+        <v>114207</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06004186691713423</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04886130460813269</v>
+        <v>0.04882568564117596</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07248178335429203</v>
+        <v>0.07193345716040482</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>138</v>
@@ -1003,19 +1003,19 @@
         <v>142391</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>120162</v>
+        <v>119038</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169478</v>
+        <v>165132</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04339749395446096</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0366225349016099</v>
+        <v>0.03628001437851452</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05165307444082526</v>
+        <v>0.05032841273006335</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1646349</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1630372</v>
+        <v>1630935</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1658888</v>
+        <v>1658543</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.972207576595749</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.962772732751517</v>
+        <v>0.9631055532169952</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.979612409329184</v>
+        <v>0.9794082437489143</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1462</v>
@@ -1053,19 +1053,19 @@
         <v>1492346</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1472596</v>
+        <v>1473466</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1510097</v>
+        <v>1510154</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9399581330828658</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9275182166457077</v>
+        <v>0.9280665428395952</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9511386953918672</v>
+        <v>0.9511743143588245</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3065</v>
@@ -1074,19 +1074,19 @@
         <v>3138695</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3111608</v>
+        <v>3115954</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3160924</v>
+        <v>3162048</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9566025060455391</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.948346925559175</v>
+        <v>0.9496715872699366</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9633774650983901</v>
+        <v>0.9637199856214853</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>20115</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12320</v>
+        <v>12120</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31061</v>
+        <v>31129</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03647844906647713</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02234364009331075</v>
+        <v>0.02198021369629697</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05632951703805013</v>
+        <v>0.05645368941757432</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1199,19 +1199,19 @@
         <v>22427</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14499</v>
+        <v>14402</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33875</v>
+        <v>33022</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04707581187831458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03043316606704533</v>
+        <v>0.03023026686222807</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07110354097863696</v>
+        <v>0.06931328150173882</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -1220,19 +1220,19 @@
         <v>42542</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31244</v>
+        <v>30963</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57088</v>
+        <v>56831</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04139050473988396</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03039816554117563</v>
+        <v>0.03012497180912829</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05554236455291311</v>
+        <v>0.05529301308279139</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>531293</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>520347</v>
+        <v>520279</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>539088</v>
+        <v>539288</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9635215509335229</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.94367048296195</v>
+        <v>0.9435463105824257</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9776563599066893</v>
+        <v>0.9780197863037031</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>430</v>
@@ -1270,19 +1270,19 @@
         <v>453985</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>442537</v>
+        <v>443390</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>461913</v>
+        <v>462010</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9529241881216854</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9288964590213631</v>
+        <v>0.9306867184982611</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9695668339329546</v>
+        <v>0.9697697331377719</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>938</v>
@@ -1291,19 +1291,19 @@
         <v>985278</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>970732</v>
+        <v>970989</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>996576</v>
+        <v>996857</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9586094952601161</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9444576354470868</v>
+        <v>0.9447069869172086</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9696018344588243</v>
+        <v>0.9698750281908717</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>170534</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>149469</v>
+        <v>146978</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>198657</v>
+        <v>198701</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0520469061498945</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04561791769455013</v>
+        <v>0.04485752845310029</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06062996508829491</v>
+        <v>0.0606433966155803</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>277</v>
@@ -1416,19 +1416,19 @@
         <v>286809</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>255958</v>
+        <v>256009</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>319087</v>
+        <v>323660</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08487502925932525</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07574534866859473</v>
+        <v>0.07576039753044053</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09442693102527638</v>
+        <v>0.09578016608480538</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>445</v>
@@ -1437,19 +1437,19 @@
         <v>457343</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>416795</v>
+        <v>416963</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>500223</v>
+        <v>496096</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06871412794003992</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06262181069777648</v>
+        <v>0.06264707577693479</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0751566894242351</v>
+        <v>0.07453658112097733</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3106009</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3077886</v>
+        <v>3077842</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3127074</v>
+        <v>3129565</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9479530938501055</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9393700349117051</v>
+        <v>0.9393566033844197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9543820823054499</v>
+        <v>0.9551424715468998</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3020</v>
@@ -1487,19 +1487,19 @@
         <v>3092388</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3060110</v>
+        <v>3055537</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3123239</v>
+        <v>3123188</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9151249707406748</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9055730689747237</v>
+        <v>0.9042198339151947</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9242546513314053</v>
+        <v>0.9242396024695594</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6066</v>
@@ -1508,19 +1508,19 @@
         <v>6198398</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6155518</v>
+        <v>6159645</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6238946</v>
+        <v>6238778</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9312858720599601</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9248433105757647</v>
+        <v>0.9254634188790227</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9373781893022235</v>
+        <v>0.9373529242230653</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>125898</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105271</v>
+        <v>106324</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>149247</v>
+        <v>149737</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1291731194258223</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1080097957762215</v>
+        <v>0.109090623872483</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1531304049790418</v>
+        <v>0.1536330154986246</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>287</v>
@@ -1872,19 +1872,19 @@
         <v>306409</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>277359</v>
+        <v>279073</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>340826</v>
+        <v>341157</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2292206824806724</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2074891581695827</v>
+        <v>0.2087707056506669</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2549674231680176</v>
+        <v>0.2552153035802717</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>401</v>
@@ -1893,19 +1893,19 @@
         <v>432307</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>399225</v>
+        <v>394681</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>472341</v>
+        <v>471197</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1870335651803091</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1727213262327056</v>
+        <v>0.1707552632325338</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2043542272357182</v>
+        <v>0.2038591506529115</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>848745</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>825396</v>
+        <v>824906</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>869372</v>
+        <v>868319</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8708268805741777</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8468695950209578</v>
+        <v>0.8463669845013755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8919902042237784</v>
+        <v>0.8909093761275171</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>959</v>
@@ -1943,19 +1943,19 @@
         <v>1030333</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>995916</v>
+        <v>995585</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1059383</v>
+        <v>1057669</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7707793175193276</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7450325768319822</v>
+        <v>0.7447846964197284</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7925108418304172</v>
+        <v>0.7912292943493332</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1753</v>
@@ -1964,19 +1964,19 @@
         <v>1879078</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1839044</v>
+        <v>1840188</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1912160</v>
+        <v>1916704</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8129664348196909</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7956457727642817</v>
+        <v>0.7961408493470885</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8272786737672941</v>
+        <v>0.8292447367674662</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>89022</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70802</v>
+        <v>70643</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>108641</v>
+        <v>109147</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04537379047575152</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03608730393457042</v>
+        <v>0.03600642134355365</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05537331686395016</v>
+        <v>0.05563161441495523</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>154</v>
@@ -2089,19 +2089,19 @@
         <v>166696</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>141528</v>
+        <v>142156</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>195334</v>
+        <v>194039</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09483211745390682</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08051439869702555</v>
+        <v>0.0808713086507806</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1111240841340212</v>
+        <v>0.1103875103706749</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>237</v>
@@ -2110,19 +2110,19 @@
         <v>255718</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>225272</v>
+        <v>223604</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>288118</v>
+        <v>288698</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06874566434902185</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06056062152789631</v>
+        <v>0.06011243189363358</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07745599932669703</v>
+        <v>0.07761180793531954</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1872945</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1853326</v>
+        <v>1852820</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1891165</v>
+        <v>1891324</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9546262095242485</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9446266831360498</v>
+        <v>0.9443683855850448</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9639126960654296</v>
+        <v>0.9639935786564463</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1481</v>
@@ -2160,19 +2160,19 @@
         <v>1591107</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1562469</v>
+        <v>1563764</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1616275</v>
+        <v>1615647</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9051678825460931</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.888875915865979</v>
+        <v>0.8896124896293253</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9194856013029745</v>
+        <v>0.9191286913492195</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3252</v>
@@ -2181,19 +2181,19 @@
         <v>3464051</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3431651</v>
+        <v>3431071</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3494497</v>
+        <v>3496165</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9312543356509781</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9225440006733028</v>
+        <v>0.9223881920646806</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9394393784721037</v>
+        <v>0.9398875681063665</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>14939</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7707</v>
+        <v>7912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27048</v>
+        <v>27172</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03104701470091747</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01601594742014506</v>
+        <v>0.01644187738591588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05621082694668648</v>
+        <v>0.05647023661111712</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -2306,19 +2306,19 @@
         <v>21996</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13831</v>
+        <v>13287</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33582</v>
+        <v>32980</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.047961155644848</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03015606059715411</v>
+        <v>0.02897100476680859</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07322308472163673</v>
+        <v>0.07191048187452291</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -2327,19 +2327,19 @@
         <v>36936</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25599</v>
+        <v>25527</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54914</v>
+        <v>51697</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03930116182989875</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02723800110451336</v>
+        <v>0.0271620071099286</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05843070665896595</v>
+        <v>0.05500809305891335</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>466242</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>454133</v>
+        <v>454009</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>473474</v>
+        <v>473269</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9689529852990826</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.943789173053312</v>
+        <v>0.9435297633888825</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9839840525798548</v>
+        <v>0.983558122614084</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>392</v>
@@ -2377,19 +2377,19 @@
         <v>436635</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>425049</v>
+        <v>425651</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>444800</v>
+        <v>445344</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.952038844355152</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9267769152783633</v>
+        <v>0.928089518125477</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.969843939402846</v>
+        <v>0.9710289952331914</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>819</v>
@@ -2398,19 +2398,19 @@
         <v>902877</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>884899</v>
+        <v>888116</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>914214</v>
+        <v>914286</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9606988381701013</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9415692933410339</v>
+        <v>0.9449919069410865</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9727619988954865</v>
+        <v>0.9728379928900712</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>229859</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>201126</v>
+        <v>199949</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>267002</v>
+        <v>263581</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06725360993588685</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05884690440273348</v>
+        <v>0.05850237428018003</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07812111613027478</v>
+        <v>0.07712041944108189</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>461</v>
@@ -2523,19 +2523,19 @@
         <v>495101</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>455521</v>
+        <v>454875</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>535925</v>
+        <v>538928</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1393405639159498</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1282010588761711</v>
+        <v>0.128019413460175</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1508299081489526</v>
+        <v>0.1516751327831109</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>669</v>
@@ -2544,19 +2544,19 @@
         <v>724960</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>674493</v>
+        <v>674929</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>774409</v>
+        <v>777979</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1039970936556536</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0967574726126932</v>
+        <v>0.096820053009032</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.111090677286602</v>
+        <v>0.1116027146375253</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3187932</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3150789</v>
+        <v>3154210</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3216665</v>
+        <v>3217842</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9327463900641132</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9218788838697252</v>
+        <v>0.9228795805589182</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9411530955972663</v>
+        <v>0.94149762571982</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2832</v>
@@ -2594,19 +2594,19 @@
         <v>3058074</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3017250</v>
+        <v>3014247</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3097654</v>
+        <v>3098300</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8606594360840502</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8491700918510474</v>
+        <v>0.8483248672168897</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8717989411238289</v>
+        <v>0.8719805865398252</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5824</v>
@@ -2615,19 +2615,19 @@
         <v>6246006</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6196557</v>
+        <v>6192987</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6296473</v>
+        <v>6296037</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8960029063443464</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.888909322713398</v>
+        <v>0.8883972853624746</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9032425273873067</v>
+        <v>0.9031799469909679</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>69263</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55118</v>
+        <v>54108</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>85348</v>
+        <v>84745</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09181821865605878</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07306775574377984</v>
+        <v>0.07172766523311636</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1131419557335932</v>
+        <v>0.1123426501563111</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>177</v>
@@ -2979,19 +2979,19 @@
         <v>204481</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>177711</v>
+        <v>177985</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>234934</v>
+        <v>231538</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2055784911979305</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1786652729427657</v>
+        <v>0.1789408140429798</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2361953344613295</v>
+        <v>0.2327811341514894</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>248</v>
@@ -3000,19 +3000,19 @@
         <v>273744</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>242970</v>
+        <v>243152</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>307094</v>
+        <v>305838</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1565136804456322</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1389190820420724</v>
+        <v>0.1390227533779142</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1755818816053645</v>
+        <v>0.1748638543993481</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>685084</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>668999</v>
+        <v>669602</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>699229</v>
+        <v>700239</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9081817813439412</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8868580442664069</v>
+        <v>0.887657349843689</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9269322442562202</v>
+        <v>0.9282723347668836</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>715</v>
@@ -3050,19 +3050,19 @@
         <v>790179</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>759726</v>
+        <v>763122</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>816949</v>
+        <v>816675</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7944215088020695</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7638046655386705</v>
+        <v>0.7672188658485106</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8213347270572343</v>
+        <v>0.8210591859570202</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1406</v>
@@ -3071,19 +3071,19 @@
         <v>1475263</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1441913</v>
+        <v>1443169</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1506037</v>
+        <v>1505855</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8434863195543677</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8244181183946353</v>
+        <v>0.8251361456006516</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8610809179579276</v>
+        <v>0.8609772466220857</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>96103</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77827</v>
+        <v>77703</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>116387</v>
+        <v>120185</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04628363688503846</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0374817512205931</v>
+        <v>0.03742212132246273</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05605263312567053</v>
+        <v>0.05788200402801814</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>138</v>
@@ -3196,19 +3196,19 @@
         <v>149036</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>124937</v>
+        <v>125448</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>174580</v>
+        <v>172984</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07495674381432578</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06283627596130267</v>
+        <v>0.06309288990170826</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0878036379766574</v>
+        <v>0.08700072647539127</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>226</v>
@@ -3217,19 +3217,19 @@
         <v>245139</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>214989</v>
+        <v>214411</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>277448</v>
+        <v>279720</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06030950603373905</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05289196288238713</v>
+        <v>0.05274974874535882</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0682582198281637</v>
+        <v>0.06881721540035493</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1980282</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1959998</v>
+        <v>1956200</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1998558</v>
+        <v>1998682</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9537163631149616</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9439473668743295</v>
+        <v>0.9421179959719819</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9625182487794068</v>
+        <v>0.9625778786775373</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1770</v>
@@ -3267,19 +3267,19 @@
         <v>1839264</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1813720</v>
+        <v>1815316</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1863363</v>
+        <v>1862852</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9250432561856742</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9121963620233426</v>
+        <v>0.9129992735246087</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9371637240386974</v>
+        <v>0.9369071100982918</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3634</v>
@@ -3288,19 +3288,19 @@
         <v>3819546</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3787237</v>
+        <v>3784965</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3849696</v>
+        <v>3850274</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9396904939662609</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9317417801718364</v>
+        <v>0.9311827845996452</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9471080371176128</v>
+        <v>0.9472502512546412</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>16042</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8502</v>
+        <v>9059</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26444</v>
+        <v>27952</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02933411773062801</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01554703911012987</v>
+        <v>0.01656496533387067</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04835398319917456</v>
+        <v>0.05111046776958754</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -3413,19 +3413,19 @@
         <v>24595</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16821</v>
+        <v>16625</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36541</v>
+        <v>36009</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04478910668110577</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0306323550161194</v>
+        <v>0.03027509040912802</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06654172438799269</v>
+        <v>0.06557416440944727</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -3434,19 +3434,19 @@
         <v>40638</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28306</v>
+        <v>29555</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54849</v>
+        <v>56673</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03707750495852601</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02582578125181548</v>
+        <v>0.02696522944204365</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05004374817727411</v>
+        <v>0.0517072694784592</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>530844</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>520442</v>
+        <v>518934</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>538384</v>
+        <v>537827</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.970665882269372</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9516460168008256</v>
+        <v>0.9488895322304125</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9844529608898701</v>
+        <v>0.9834350346661294</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>502</v>
@@ -3484,19 +3484,19 @@
         <v>524545</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>512599</v>
+        <v>513131</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>532319</v>
+        <v>532515</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9552108933188942</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9334582756120079</v>
+        <v>0.9344258355905528</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9693676449838806</v>
+        <v>0.9697249095908721</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>989</v>
@@ -3505,19 +3505,19 @@
         <v>1055389</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1041178</v>
+        <v>1039354</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1067721</v>
+        <v>1066472</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.962922495041474</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9499562518227258</v>
+        <v>0.9482927305215409</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9741742187481846</v>
+        <v>0.9730347705579564</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>181408</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>157480</v>
+        <v>156501</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>210972</v>
+        <v>211107</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05370881265581418</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04662455062346318</v>
+        <v>0.04633476659891002</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0624617731751833</v>
+        <v>0.0625018409074117</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>339</v>
@@ -3630,19 +3630,19 @@
         <v>378113</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>338552</v>
+        <v>337931</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>417508</v>
+        <v>414968</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1070503894549247</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09585000309861702</v>
+        <v>0.09567432034974847</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1182038573355118</v>
+        <v>0.1174847150223987</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>512</v>
@@ -3651,19 +3651,19 @@
         <v>559521</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>513946</v>
+        <v>513282</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>608065</v>
+        <v>606135</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08097588785353953</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07438015236681676</v>
+        <v>0.07428402168942035</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08800146922646301</v>
+        <v>0.08772213720146342</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3196210</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3166646</v>
+        <v>3166511</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3220138</v>
+        <v>3221117</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9462911873441858</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9375382268248167</v>
+        <v>0.9374981590925883</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9533754493765371</v>
+        <v>0.95366523340109</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2987</v>
@@ -3701,19 +3701,19 @@
         <v>3153987</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3114592</v>
+        <v>3117132</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3193548</v>
+        <v>3194169</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8929496105450753</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8817961426644885</v>
+        <v>0.8825152849776013</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9041499969013831</v>
+        <v>0.9043256796502516</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6029</v>
@@ -3722,19 +3722,19 @@
         <v>6350197</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6301653</v>
+        <v>6303583</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6395772</v>
+        <v>6396436</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9190241121464605</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9119985307735371</v>
+        <v>0.9122778627985366</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9256198476331833</v>
+        <v>0.9257159783105797</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>63027</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49897</v>
+        <v>50376</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>78845</v>
+        <v>78814</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1090595067161181</v>
+        <v>0.109059506716118</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08633929116102096</v>
+        <v>0.08716839364954661</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1364298976721651</v>
+        <v>0.1363775512899939</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>303</v>
@@ -4086,19 +4086,19 @@
         <v>178883</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>160634</v>
+        <v>160607</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>197598</v>
+        <v>197501</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2180296771909602</v>
+        <v>0.2180296771909603</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1957873367907651</v>
+        <v>0.1957538680527697</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2408403574504857</v>
+        <v>0.2407218109881747</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>384</v>
@@ -4107,19 +4107,19 @@
         <v>241910</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>219857</v>
+        <v>219808</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>267006</v>
+        <v>265801</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1729947502335597</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1572243507526568</v>
+        <v>0.1571887609687606</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1909413664050929</v>
+        <v>0.1900797635774219</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>514887</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>499069</v>
+        <v>499100</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>528017</v>
+        <v>527538</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8909404932838819</v>
+        <v>0.8909404932838821</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.863570102327835</v>
+        <v>0.8636224487100062</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9136607088389793</v>
+        <v>0.9128316063504534</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1121</v>
@@ -4157,19 +4157,19 @@
         <v>641570</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>622855</v>
+        <v>622952</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>659819</v>
+        <v>659846</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7819703228090399</v>
+        <v>0.78197032280904</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7591596425495144</v>
+        <v>0.7592781890118252</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.804212663209235</v>
+        <v>0.8042461319472302</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1730</v>
@@ -4178,19 +4178,19 @@
         <v>1156457</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1131361</v>
+        <v>1132566</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1178510</v>
+        <v>1178559</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8270052497664403</v>
+        <v>0.8270052497664402</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.809058633594907</v>
+        <v>0.8099202364225782</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8427756492473435</v>
+        <v>0.8428112390312396</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>112263</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>92442</v>
+        <v>92187</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>133890</v>
+        <v>134946</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05034269444736877</v>
+        <v>0.05034269444736879</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04145415818037085</v>
+        <v>0.04133972488359189</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06004091891767902</v>
+        <v>0.06051459748801917</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>233</v>
@@ -4303,19 +4303,19 @@
         <v>168572</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>144788</v>
+        <v>146382</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>192509</v>
+        <v>193201</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07764455778283667</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0666894670641557</v>
+        <v>0.06742363124683609</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08866977565177102</v>
+        <v>0.08898880982180012</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>341</v>
@@ -4324,19 +4324,19 @@
         <v>280835</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>249360</v>
+        <v>248166</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>315073</v>
+        <v>313593</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06381091305465982</v>
+        <v>0.06381091305465983</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05665913124003689</v>
+        <v>0.05638790858158301</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.071590381963587</v>
+        <v>0.07125416179458201</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2117717</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2096090</v>
+        <v>2095034</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2137538</v>
+        <v>2137793</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9496573055526313</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9399590810823212</v>
+        <v>0.9394854025119806</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9585458418196293</v>
+        <v>0.9586602751164082</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2687</v>
@@ -4374,19 +4374,19 @@
         <v>2002502</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1978565</v>
+        <v>1977873</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2026286</v>
+        <v>2024692</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9223554422171633</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9113302243482294</v>
+        <v>0.9110111901782004</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9333105329358447</v>
+        <v>0.9325763687531641</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4570</v>
@@ -4395,19 +4395,19 @@
         <v>4120219</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4085981</v>
+        <v>4087461</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4151694</v>
+        <v>4152888</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9361890869453401</v>
+        <v>0.9361890869453402</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9284096180364126</v>
+        <v>0.928745838205418</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9433408687599627</v>
+        <v>0.943612091418417</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>26814</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17253</v>
+        <v>17154</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38703</v>
+        <v>40388</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03768250401627966</v>
+        <v>0.03768250401627964</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02424582680635117</v>
+        <v>0.02410707162218327</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05439032709921421</v>
+        <v>0.056757615325802</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -4520,19 +4520,19 @@
         <v>53955</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41602</v>
+        <v>40733</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69016</v>
+        <v>68078</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07342101542751295</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05661150770660733</v>
+        <v>0.05542766912661156</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09391473463426901</v>
+        <v>0.09263896422071795</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -4541,19 +4541,19 @@
         <v>80770</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63497</v>
+        <v>64258</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100453</v>
+        <v>100327</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05583948160047848</v>
+        <v>0.05583948160047847</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04389809674674662</v>
+        <v>0.04442416914683549</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0694469788699809</v>
+        <v>0.06936041307627885</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>684773</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>672884</v>
+        <v>671199</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>694334</v>
+        <v>694433</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9623174959837204</v>
+        <v>0.9623174959837202</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9456096729007862</v>
+        <v>0.9432423846741981</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9757541731936489</v>
+        <v>0.9758929283778166</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>936</v>
@@ -4591,19 +4591,19 @@
         <v>680922</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>665861</v>
+        <v>666799</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>693275</v>
+        <v>694144</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9265789845724868</v>
+        <v>0.926578984572487</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.906085265365731</v>
+        <v>0.9073610357792821</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9433884922933927</v>
+        <v>0.9445723308733884</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1591</v>
@@ -4612,19 +4612,19 @@
         <v>1365694</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1346011</v>
+        <v>1346137</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1382967</v>
+        <v>1382206</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9441605183995216</v>
+        <v>0.9441605183995213</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.930553021130019</v>
+        <v>0.9306395869237208</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9561019032532534</v>
+        <v>0.9555758308531646</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>202105</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>174259</v>
+        <v>177483</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>232254</v>
+        <v>232963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05742454296536152</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04951263572928064</v>
+        <v>0.05042868864337335</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06599098711644504</v>
+        <v>0.06619243523880321</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>604</v>
@@ -4737,19 +4737,19 @@
         <v>401411</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>367616</v>
+        <v>372511</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>435661</v>
+        <v>435862</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1077206487321817</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09865163282050038</v>
+        <v>0.09996534327484964</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1169119323405358</v>
+        <v>0.1169659062137427</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>819</v>
@@ -4758,19 +4758,19 @@
         <v>603515</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>562052</v>
+        <v>561440</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>649333</v>
+        <v>650376</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08329075759728269</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07756842459775895</v>
+        <v>0.07748393011564422</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08961396831923604</v>
+        <v>0.08975799853177627</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3317376</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3287227</v>
+        <v>3286518</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3345222</v>
+        <v>3341998</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9425754570346385</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.934009012883555</v>
+        <v>0.9338075647611968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9504873642707194</v>
+        <v>0.9495713113566266</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4744</v>
@@ -4808,19 +4808,19 @@
         <v>3324993</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3290743</v>
+        <v>3290542</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3358788</v>
+        <v>3353893</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8922793512678183</v>
+        <v>0.8922793512678182</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8830880676594641</v>
+        <v>0.8830340937862575</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9013483671794997</v>
+        <v>0.9000346567251503</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7891</v>
@@ -4829,19 +4829,19 @@
         <v>6642370</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6596552</v>
+        <v>6595509</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6683833</v>
+        <v>6684445</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9167092424027173</v>
+        <v>0.9167092424027175</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9103860316807639</v>
+        <v>0.9102420014682236</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9224315754022412</v>
+        <v>0.922516069884356</v>
       </c>
     </row>
     <row r="15">
